--- a/xlsx/eigem.xlsx
+++ b/xlsx/eigem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4375678-3438-42D9-8875-2E81C67A267F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC2014-F458-4B1C-B40C-3F521FA21A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,18 +111,23 @@
     <t>Tri3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Quad8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00000000000000"/>
     <numFmt numFmtId="177" formatCode="0.000000000000"/>
     <numFmt numFmtId="178" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0000000000000"/>
     <numFmt numFmtId="180" formatCode="0.000000000000000"/>
     <numFmt numFmtId="181" formatCode="0.00000000000"/>
+    <numFmt numFmtId="182" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -189,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -201,6 +206,7 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12:F15"/>
@@ -894,6 +900,89 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>450</v>
+      </c>
+      <c r="D22">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9">
+        <v>28682.113069858999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.4576111435360204</v>
+      </c>
+      <c r="G22">
+        <v>9.6910013008056406E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1666</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="E23" s="9">
+        <v>24409.968917033901</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.3875672263991898</v>
+      </c>
+      <c r="G23">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>6402</v>
+      </c>
+      <c r="D24">
+        <v>1024</v>
+      </c>
+      <c r="E24" s="9">
+        <v>22550.759788527801</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4.35316117887057</v>
+      </c>
+      <c r="G24">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>25090</v>
+      </c>
+      <c r="D25">
+        <v>4096</v>
+      </c>
+      <c r="E25" s="9">
+        <v>21823.665663534801</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4.3389276996775301</v>
+      </c>
+      <c r="G25">
+        <v>-0.80617997398388697</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/eigem.xlsx
+++ b/xlsx/eigem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC2014-F458-4B1C-B40C-3F521FA21A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275F9E3-E617-408C-B320-ACB29457E44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,261 +725,320 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8408.7131924588793</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.9247295396536002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>162</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>64</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>2612.7610564503302</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>3.4170996942240399</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>9.6910013008056406E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>578</v>
-      </c>
-      <c r="D13">
-        <v>256</v>
-      </c>
-      <c r="E13" s="3">
-        <v>719.58940725847299</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.8570847616731601</v>
-      </c>
-      <c r="G13">
-        <v>-0.20411998265592399</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>2178</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1023</v>
+        <v>578</v>
+      </c>
+      <c r="D14">
+        <v>256</v>
       </c>
       <c r="E14" s="3">
-        <v>187.35385393207699</v>
+        <v>719.58940725847299</v>
       </c>
       <c r="F14" s="2">
-        <v>2.2726626311059301</v>
+        <v>2.8570847616731601</v>
       </c>
       <c r="G14">
-        <v>-0.50514997831990505</v>
+        <v>-0.20411998265592399</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>8450</v>
+        <v>2178</v>
       </c>
       <c r="D15" s="8">
-        <v>4096</v>
-      </c>
-      <c r="E15" s="5">
-        <v>47.668121708544199</v>
+        <v>1023</v>
+      </c>
+      <c r="E15" s="3">
+        <v>187.35385393207699</v>
       </c>
       <c r="F15" s="2">
-        <v>1.6782280395358899</v>
+        <v>2.2726626311059301</v>
       </c>
       <c r="G15">
-        <v>-0.80617997398388697</v>
+        <v>-0.50514997831990505</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="1">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>8450</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4096</v>
+      </c>
+      <c r="E16" s="5">
+        <v>47.668121708544199</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.6782280395358899</v>
+      </c>
+      <c r="G16">
+        <v>-0.80617997398388697</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>162</v>
-      </c>
-      <c r="D17" s="8">
-        <v>128</v>
-      </c>
-      <c r="E17" s="3">
-        <v>126.05112047509</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.1005467104962801</v>
-      </c>
-      <c r="G17">
-        <v>9.6910013008056406E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>578</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8">
-        <v>512</v>
-      </c>
-      <c r="E18" s="5">
-        <v>30.422183049523401</v>
+        <v>32</v>
+      </c>
+      <c r="E18" s="3">
+        <v>552.62835503622705</v>
       </c>
       <c r="F18" s="2">
-        <v>1.48319037514578</v>
-      </c>
-      <c r="G18">
-        <v>-0.20411998265592399</v>
+        <v>2.7424331645468998</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>2178</v>
-      </c>
-      <c r="D19">
-        <v>2048</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7.5013362012754197</v>
+        <v>162</v>
+      </c>
+      <c r="D19" s="8">
+        <v>128</v>
+      </c>
+      <c r="E19" s="3">
+        <v>126.05112047509</v>
       </c>
       <c r="F19" s="2">
-        <v>0.87513863047878804</v>
+        <v>2.1005467104962801</v>
       </c>
       <c r="G19">
-        <v>-0.50514997831990505</v>
+        <v>9.6910013008056406E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>578</v>
+      </c>
+      <c r="D20" s="8">
+        <v>512</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30.422183049523401</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.48319037514578</v>
+      </c>
+      <c r="G20">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>2178</v>
+      </c>
+      <c r="D21">
+        <v>2048</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.5013362012754197</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.87513863047878804</v>
+      </c>
+      <c r="G21">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>64</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>8450</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>8192</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <v>1.8656018537278301</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="2">
         <v>0.27081896460945498</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>450</v>
-      </c>
-      <c r="D22">
-        <v>64</v>
-      </c>
-      <c r="E22" s="9">
-        <v>28682.113069858999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4.4576111435360204</v>
-      </c>
-      <c r="G22">
-        <v>9.6910013008056406E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>130</v>
+      </c>
+      <c r="D24">
         <v>16</v>
       </c>
-      <c r="C23">
-        <v>1666</v>
-      </c>
-      <c r="D23">
-        <v>256</v>
-      </c>
-      <c r="E23" s="9">
-        <v>24409.968917033901</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.3875672263991898</v>
-      </c>
-      <c r="G23">
-        <v>-0.20411998265592399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>6402</v>
-      </c>
-      <c r="D24">
-        <v>1024</v>
-      </c>
       <c r="E24" s="9">
-        <v>22550.759788527801</v>
+        <v>36815.985260015303</v>
       </c>
       <c r="F24" s="2">
-        <v>4.35316117887057</v>
+        <v>4.5660364274464902</v>
       </c>
       <c r="G24">
-        <v>-0.50514997831990505</v>
+        <v>0.69897000433601797</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>450</v>
+      </c>
+      <c r="D25">
         <v>64</v>
       </c>
-      <c r="C25">
+      <c r="E25" s="9">
+        <v>28466.3290810213</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4.4543314656490001</v>
+      </c>
+      <c r="G25">
+        <v>9.6910013008056406E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>1666</v>
+      </c>
+      <c r="D26">
+        <v>256</v>
+      </c>
+      <c r="E26" s="9">
+        <v>24362.923700143499</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4.3867294050875696</v>
+      </c>
+      <c r="G26">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>6402</v>
+      </c>
+      <c r="D27">
+        <v>1024</v>
+      </c>
+      <c r="E27" s="9">
+        <v>22541.975851947798</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.3529919802100698</v>
+      </c>
+      <c r="G27">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>64</v>
+      </c>
+      <c r="C28">
         <v>25090</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>4096</v>
       </c>
-      <c r="E25" s="9">
-        <v>21823.665663534801</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4.3389276996775301</v>
-      </c>
-      <c r="G25">
+      <c r="E28" s="9">
+        <v>21821.7776424435</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.3388901261266604</v>
+      </c>
+      <c r="G28">
         <v>-0.80617997398388697</v>
       </c>
     </row>

--- a/xlsx/eigem.xlsx
+++ b/xlsx/eigem.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275F9E3-E617-408C-B320-ACB29457E44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9116B-B57B-4CD7-8F53-A68FDC187912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="TZZ" sheetId="6" r:id="rId1"/>
+    <sheet name="Mix" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,6 +114,22 @@
   </si>
   <si>
     <t>Quad8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000004783591393377066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000004739424127464725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0000031664523694208475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000001842945301329244</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,6 +224,7 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1047,4 +1065,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B8F2E-ECC8-4DC0-BEAD-7578AFAEA7A2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>162</v>
+      </c>
+      <c r="D2">
+        <v>81</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>578</v>
+      </c>
+      <c r="D3">
+        <v>289</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>2178</v>
+      </c>
+      <c r="D4">
+        <v>1089</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>8450</v>
+      </c>
+      <c r="D5">
+        <v>4225</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx/eigem.xlsx
+++ b/xlsx/eigem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9116B-B57B-4CD7-8F53-A68FDC187912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436976DA-43E4-48FB-877E-6C14E752DF0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,19 +117,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.000004783591393377066</t>
+    <t>1:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.000004739424127464725</t>
+    <t>2:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.0000031664523694208475</t>
+    <t>0.0616440945837669</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.000001842945301329244</t>
+    <t>0.0005655088113368651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv_p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.00016333391507969525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000104998232450678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00000000000000"/>
     <numFmt numFmtId="177" formatCode="0.000000000000"/>
     <numFmt numFmtId="178" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
@@ -145,6 +157,7 @@
     <numFmt numFmtId="180" formatCode="0.000000000000000"/>
     <numFmt numFmtId="181" formatCode="0.00000000000"/>
     <numFmt numFmtId="182" formatCode="0.0000000000"/>
+    <numFmt numFmtId="194" formatCode="0.00000000000000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -211,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -225,6 +238,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,7 +564,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G25" sqref="G25:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1069,100 +1091,335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B8F2E-ECC8-4DC0-BEAD-7578AFAEA7A2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>162</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>81</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="11">
+        <v>9.34343350447249E-8</v>
+      </c>
+      <c r="G2" s="13">
+        <v>-7.0294935008545103</v>
+      </c>
+      <c r="H2">
+        <v>9.6910013008056406E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>578</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>289</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="11">
+        <v>1.0405755285339299E-7</v>
+      </c>
+      <c r="G3" s="13">
+        <v>-6.9827263917281197</v>
+      </c>
+      <c r="H3">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4">
         <v>2178</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1089</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="11">
+        <v>4.9743035491191301E-8</v>
+      </c>
+      <c r="G4" s="13">
+        <v>-7.30326771611373</v>
+      </c>
+      <c r="H4">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>64</v>
+      </c>
+      <c r="D5">
         <v>8450</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4225</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="11">
+        <v>9.6391305201871298E-8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>-7.0159621390551701</v>
+      </c>
+      <c r="H5">
+        <v>-0.80617997398388697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7">
+        <v>68</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.25794486597523E-8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-7.9003383930143096</v>
+      </c>
+      <c r="H7">
+        <v>9.6910013008056406E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>578</v>
+      </c>
+      <c r="E8">
+        <v>204</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4.2865290171969999E-9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-8.3678942320175196</v>
+      </c>
+      <c r="H8">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>2178</v>
+      </c>
+      <c r="E9">
+        <v>668</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3.7814657138425398E-10</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-9.4223398329530497</v>
+      </c>
+      <c r="H9">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>8450</v>
+      </c>
+      <c r="E10">
+        <v>2366</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.10341465292328E-10</v>
+      </c>
+      <c r="G10" s="13">
+        <v>-9.9572612530758704</v>
+      </c>
+      <c r="H10">
+        <v>-0.80617997398388697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13">
+        <v>-1.21010852186672</v>
+      </c>
+      <c r="H12">
+        <v>9.6910013008056406E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>578</v>
+      </c>
+      <c r="E13">
+        <v>81</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="G13" s="13">
+        <v>-3.2475606238328298</v>
+      </c>
+      <c r="H13">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2178</v>
+      </c>
+      <c r="E14">
+        <v>289</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13">
+        <v>-3.7869236278618499</v>
+      </c>
+      <c r="H14">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>8450</v>
+      </c>
+      <c r="E15">
+        <v>1089</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="13">
+        <v>-3.9788180118193699</v>
+      </c>
+      <c r="H15">
+        <v>-0.80617997398388697</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/eigem.xlsx
+++ b/xlsx/eigem.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436976DA-43E4-48FB-877E-6C14E752DF0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC4326-46E7-4EA1-B72F-8CFBEAAEE40A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="TZZ" sheetId="6" r:id="rId1"/>
     <sheet name="Mix" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,6 +145,30 @@
     <t>0.000104998232450678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piecewise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩减积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +182,7 @@
     <numFmt numFmtId="180" formatCode="0.000000000000000"/>
     <numFmt numFmtId="181" formatCode="0.00000000000"/>
     <numFmt numFmtId="182" formatCode="0.0000000000"/>
-    <numFmt numFmtId="194" formatCode="0.00000000000000E+00"/>
+    <numFmt numFmtId="183" formatCode="0.00000000000000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -238,7 +263,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -262,6 +287,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37308</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06477AD9-EC3B-4F24-8ADA-8DC6A838FD6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1438275"/>
+          <a:ext cx="6333333" cy="4923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1093,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B8F2E-ECC8-4DC0-BEAD-7578AFAEA7A2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1422,4 +1496,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A43E5-8FCD-4B64-8A15-B61773EDE4C4}">
+  <dimension ref="B1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.17609125905568124</v>
+      </c>
+      <c r="C2">
+        <v>-2.3121642402648028</v>
+      </c>
+      <c r="D2">
+        <v>-0.82090488321597332</v>
+      </c>
+      <c r="F2">
+        <v>0.17609125905568124</v>
+      </c>
+      <c r="G2">
+        <v>-2.3121757976134667</v>
+      </c>
+      <c r="H2">
+        <v>-0.82090230126118002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-0.12493873660829995</v>
+      </c>
+      <c r="C3">
+        <v>-2.9142729411175181</v>
+      </c>
+      <c r="D3">
+        <v>-1.1221981123024043</v>
+      </c>
+      <c r="F3">
+        <v>-0.12493873660829995</v>
+      </c>
+      <c r="G3">
+        <v>-2.9142856667083974</v>
+      </c>
+      <c r="H3">
+        <v>-1.1221955228174243</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-0.42596873227228116</v>
+      </c>
+      <c r="C4">
+        <v>-3.5158156975012846</v>
+      </c>
+      <c r="D4">
+        <v>-1.4232932203405924</v>
+      </c>
+      <c r="F4">
+        <v>-0.42596873227228116</v>
+      </c>
+      <c r="G4">
+        <v>-3.5157390078787172</v>
+      </c>
+      <c r="H4">
+        <v>-1.4232906405091248</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="C5">
+        <v>-4.0614718673787191</v>
+      </c>
+      <c r="D5">
+        <v>-1.6963100593583991</v>
+      </c>
+      <c r="F5">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="G5">
+        <v>-4.0600244247372173</v>
+      </c>
+      <c r="H5">
+        <v>-1.6963075195525803</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>